--- a/Rubricas.xlsx
+++ b/Rubricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Mi unidad [ivan ayala]\AIEP 2024\AIEP taller de aplicaciones para internet ful stack\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Prueba1\prueba1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00985D37-047C-44F9-A787-33D2444A6B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B00CCD6-1348-4452-B3F0-C1965B630249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica Portafolio" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="331">
   <si>
     <t>Puntaje</t>
   </si>
@@ -3576,6 +3576,9 @@
   </si>
   <si>
     <t>64 ptos</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3906,7 +3909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4069,6 +4072,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7342,16 +7351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>103490</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>32721</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532115</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>347046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7374,8 +7383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3853543"/>
-          <a:ext cx="2890233" cy="2438464"/>
+          <a:off x="8324850" y="609600"/>
+          <a:ext cx="2732390" cy="2509221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7967,7 +7976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE295709-0097-4429-92F7-17D00FDAE40E}">
   <dimension ref="A4:J244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -9002,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9062,9 @@
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -9062,7 +9073,9 @@
       <c r="A5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -9071,7 +9084,9 @@
       <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -9080,7 +9095,9 @@
       <c r="A7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="61" t="s">
+        <v>330</v>
+      </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -9207,8 +9224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9238,61 +9255,81 @@
       <c r="A5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
